--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="467">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1775,6 +1775,9 @@
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1803,6 +1806,9 @@
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1815,6 +1821,9 @@
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
